--- a/dependencies/brucella/ceti2/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/brucella/ceti2/script_dependents/Filtered_Regions.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\brucella\ceti2\script_dependents\script2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/ceti2/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4862696-8E95-4F4B-BFEF-AE30774A80AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77505" yWindow="8055" windowWidth="23580" windowHeight="18615" tabRatio="500"/>
+    <workbookView xWindow="64300" yWindow="5720" windowWidth="23580" windowHeight="18620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="gi|560146340|ref|NC_022905.1|" sheetId="2" r:id="rId1"/>
-    <sheet name="gi|560148055|ref|NC_022906.1|" sheetId="1" r:id="rId2"/>
+    <sheet name="NC_022905.1" sheetId="2" r:id="rId1"/>
+    <sheet name="NC_022906.1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Bceti2Cudo-All</t>
   </si>
@@ -44,611 +45,11 @@
   <si>
     <t>Bceti2-05</t>
   </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1003334</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1003863</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1004835</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1005815</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1006107</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1044016</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1044026</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1044034</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1044120</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1044520</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1044759</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1044815</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1044838</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1044840</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1044877</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1045015</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1045033</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1045216</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1045218</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1045231</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1045246</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1045471</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1045489</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1050324</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1050327</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1050328</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1050558</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1050561</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1093785</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1094185</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1094480</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1274934</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1305952</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1305954</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1305977</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1306272</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1306672</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1306758</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355792</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355815</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355816</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355834</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355860</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355867</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355870</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355876</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355879</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355881</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355882</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355888</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355894</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355897</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355906</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355939</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355947</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355948</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355954</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355956</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355957</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355960</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1355964</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1356213</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1411093</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1411493</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1457786</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1457791</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1457803</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1461236</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1461278</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1461673</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1461968</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1463413</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1463578</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1585800</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1585893</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1585894</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1585897</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1853537</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1853623</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1924761</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1924790</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1924792</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1924797</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1924829</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1924836</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1924857</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1924859</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1924865</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1924870</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1924874</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1924896</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1924933</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1924938</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1924941</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1924942</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1939944</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1939945</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1941137</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-201536</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-2025544</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-203556</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-203591</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-225387</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-395923</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-396321</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-401708</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-551445</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-551449</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-551456</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-752642</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-935761</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-935762</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-937191</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-967125</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-969126</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-969141</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-969142</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-969143</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-969205</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-969206</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-969207</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-986485</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1031000</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1031003</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1031005</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1095858</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1095859</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1095920</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1095922</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1095923</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1095926</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1095930</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1096051</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1096052</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1096053</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1096056</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1096068</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1096097</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1096124</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1096139</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1096208</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-1096210</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-188987</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-194772</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-238127</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-238158</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-238363</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-324297</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-324298</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-331356</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-331362</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-343555</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-343661</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-343678</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-343687</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-343688</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-343692</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-459378</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-459464</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-459866</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-734994</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-740964</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-740966</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-740989</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-741284</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-741685</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-741771</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1411563</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1411568</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-713896</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-161860</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1983309</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-116042</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-116050</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-116053</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-116056</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-753546</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-198202</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1358315</t>
-  </si>
-  <si>
-    <t>gi|560148055|ref|NC_022906.1|-51786</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1017320</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-922522</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-3428</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-3432</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-3441</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-3445</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1093699</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1093710</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1093715</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1463318</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1463323</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1463335</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1463467</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1463509</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1463557</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1463575</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-1463622</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-713821</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-713826</t>
-  </si>
-  <si>
-    <t>gi|560146340|ref|NC_022905.1|-713859</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2296,8 +1697,8 @@
     <cellStyle name="Linked Cell" xfId="142" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="138" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="171"/>
-    <cellStyle name="Note 2" xfId="172"/>
+    <cellStyle name="Normal 2" xfId="171" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="Note 2" xfId="172" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
     <cellStyle name="Output" xfId="140" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="131" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="146" builtinId="25" customBuiltin="1"/>
@@ -2637,26 +2038,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A154" sqref="A154"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="9" customWidth="1"/>
-    <col min="5" max="5" width="29.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="1"/>
+    <col min="5" max="5" width="29.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2676,9 +2077,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>6</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
+        <v>1003334</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2686,9 +2087,9 @@
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>7</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>1003863</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2696,9 +2097,9 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>8</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>1004835</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2706,9 +2107,9 @@
       <c r="E4" s="17"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>9</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>1005815</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2716,9 +2117,9 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>10</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>1006107</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -2726,9 +2127,9 @@
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>11</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>1044016</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2736,9 +2137,9 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>12</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>1044026</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2746,9 +2147,9 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>13</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>1044034</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -2756,9 +2157,9 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>14</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>1044120</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -2766,9 +2167,9 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>15</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>1044520</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -2776,9 +2177,9 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>16</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>1044759</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -2786,9 +2187,9 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>17</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>1044815</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -2796,9 +2197,9 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>18</v>
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>1044838</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -2806,9 +2207,9 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>19</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>1044840</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -2816,9 +2217,9 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>20</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>1044877</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -2826,9 +2227,9 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>21</v>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>1045015</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -2836,9 +2237,9 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>22</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>1045033</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -2846,9 +2247,9 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>23</v>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>1045216</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2856,9 +2257,9 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>24</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>1045218</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2866,9 +2267,9 @@
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>25</v>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>1045231</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -2876,9 +2277,9 @@
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>26</v>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>1045246</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -2886,9 +2287,9 @@
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>27</v>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>1045471</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2896,9 +2297,9 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>28</v>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>1045489</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2906,9 +2307,9 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>29</v>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>1050324</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2916,9 +2317,9 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>30</v>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>1050327</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2926,9 +2327,9 @@
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>31</v>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>1050328</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -2936,9 +2337,9 @@
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>32</v>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>1050558</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -2946,9 +2347,9 @@
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>33</v>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>1050561</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -2956,9 +2357,9 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>34</v>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>1093785</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -2966,9 +2367,9 @@
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>35</v>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>1094185</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -2976,9 +2377,9 @@
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>36</v>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>1094480</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -2986,9 +2387,9 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>37</v>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>1274934</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -2996,9 +2397,9 @@
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>38</v>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>1305952</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -3006,9 +2407,9 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>39</v>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>1305954</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -3016,9 +2417,9 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>40</v>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>1305977</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -3026,9 +2427,9 @@
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>41</v>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>1306272</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -3036,9 +2437,9 @@
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>42</v>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>1306672</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -3046,9 +2447,9 @@
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>43</v>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>1306758</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -3056,9 +2457,9 @@
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>44</v>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>1355792</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -3066,9 +2467,9 @@
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>45</v>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>1355815</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -3076,9 +2477,9 @@
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>46</v>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>1355816</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -3086,9 +2487,9 @@
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>47</v>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>1355834</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -3096,9 +2497,9 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>48</v>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>1355860</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -3106,9 +2507,9 @@
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>49</v>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>1355867</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -3116,9 +2517,9 @@
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>50</v>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>1355870</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -3126,9 +2527,9 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>51</v>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>1355876</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -3136,9 +2537,9 @@
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>52</v>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
+        <v>1355879</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -3146,9 +2547,9 @@
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>53</v>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="15">
+        <v>1355881</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -3156,9 +2557,9 @@
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>54</v>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="15">
+        <v>1355882</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -3166,9 +2567,9 @@
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
-        <v>55</v>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="15">
+        <v>1355888</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -3176,9 +2577,9 @@
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>56</v>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="15">
+        <v>1355894</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -3186,9 +2587,9 @@
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>57</v>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="15">
+        <v>1355897</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -3196,9 +2597,9 @@
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
-        <v>58</v>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="15">
+        <v>1355906</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -3206,9 +2607,9 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
-        <v>59</v>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="15">
+        <v>1355939</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -3216,9 +2617,9 @@
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>60</v>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="15">
+        <v>1355947</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -3226,9 +2627,9 @@
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>61</v>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="15">
+        <v>1355948</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -3236,9 +2637,9 @@
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
-        <v>62</v>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="15">
+        <v>1355954</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -3246,9 +2647,9 @@
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
-        <v>63</v>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="15">
+        <v>1355956</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -3256,9 +2657,9 @@
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>64</v>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="15">
+        <v>1355957</v>
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -3266,9 +2667,9 @@
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
-        <v>65</v>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="15">
+        <v>1355960</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -3276,9 +2677,9 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
-        <v>66</v>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="15">
+        <v>1355964</v>
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -3286,9 +2687,9 @@
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
-        <v>67</v>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="15">
+        <v>1356213</v>
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -3296,9 +2697,9 @@
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
-        <v>68</v>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="15">
+        <v>1411093</v>
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -3306,9 +2707,9 @@
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
-        <v>69</v>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="15">
+        <v>1411493</v>
       </c>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -3316,9 +2717,9 @@
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
-        <v>70</v>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="15">
+        <v>1457786</v>
       </c>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -3326,9 +2727,9 @@
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
-        <v>71</v>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="15">
+        <v>1457791</v>
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -3336,9 +2737,9 @@
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
-        <v>72</v>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="15">
+        <v>1457803</v>
       </c>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -3346,9 +2747,9 @@
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
-        <v>73</v>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="15">
+        <v>1461236</v>
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -3356,9 +2757,9 @@
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
-        <v>74</v>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="15">
+        <v>1461278</v>
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -3366,9 +2767,9 @@
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
-        <v>75</v>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="15">
+        <v>1461673</v>
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -3376,9 +2777,9 @@
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
-        <v>76</v>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="15">
+        <v>1461968</v>
       </c>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -3386,9 +2787,9 @@
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
-        <v>77</v>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="15">
+        <v>1463413</v>
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -3396,9 +2797,9 @@
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
-        <v>78</v>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="15">
+        <v>1463578</v>
       </c>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -3406,9 +2807,9 @@
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
-        <v>79</v>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="15">
+        <v>1585800</v>
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -3416,9 +2817,9 @@
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
-        <v>80</v>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="15">
+        <v>1585893</v>
       </c>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -3426,9 +2827,9 @@
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
-        <v>81</v>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="15">
+        <v>1585894</v>
       </c>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -3436,9 +2837,9 @@
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
-        <v>82</v>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="15">
+        <v>1585897</v>
       </c>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -3446,9 +2847,9 @@
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
-        <v>83</v>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="15">
+        <v>1853537</v>
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -3456,9 +2857,9 @@
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
-        <v>84</v>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="15">
+        <v>1853623</v>
       </c>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -3466,9 +2867,9 @@
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
-        <v>85</v>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="15">
+        <v>1924761</v>
       </c>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -3476,9 +2877,9 @@
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
-        <v>86</v>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="15">
+        <v>1924790</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -3486,9 +2887,9 @@
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
-        <v>87</v>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="15">
+        <v>1924792</v>
       </c>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -3496,9 +2897,9 @@
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
-        <v>88</v>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="15">
+        <v>1924797</v>
       </c>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -3506,9 +2907,9 @@
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
-        <v>89</v>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="15">
+        <v>1924829</v>
       </c>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -3516,9 +2917,9 @@
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="15" t="s">
-        <v>90</v>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="15">
+        <v>1924836</v>
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -3526,9 +2927,9 @@
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="15" t="s">
-        <v>91</v>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="15">
+        <v>1924857</v>
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -3536,9 +2937,9 @@
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
-        <v>92</v>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="15">
+        <v>1924859</v>
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -3546,9 +2947,9 @@
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="15" t="s">
-        <v>93</v>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="15">
+        <v>1924865</v>
       </c>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -3556,9 +2957,9 @@
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
-        <v>94</v>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="15">
+        <v>1924870</v>
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -3566,9 +2967,9 @@
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="15" t="s">
-        <v>95</v>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="15">
+        <v>1924874</v>
       </c>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -3576,9 +2977,9 @@
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
-        <v>96</v>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="15">
+        <v>1924896</v>
       </c>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -3586,9 +2987,9 @@
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="15" t="s">
-        <v>97</v>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="15">
+        <v>1924933</v>
       </c>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -3596,9 +2997,9 @@
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="15" t="s">
-        <v>98</v>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="15">
+        <v>1924938</v>
       </c>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -3606,9 +3007,9 @@
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="15" t="s">
-        <v>99</v>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="15">
+        <v>1924941</v>
       </c>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -3616,9 +3017,9 @@
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="15" t="s">
-        <v>100</v>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="15">
+        <v>1924942</v>
       </c>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -3626,9 +3027,9 @@
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="15" t="s">
-        <v>101</v>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="15">
+        <v>1939944</v>
       </c>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -3636,9 +3037,9 @@
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="15" t="s">
-        <v>102</v>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="15">
+        <v>1939945</v>
       </c>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -3646,9 +3047,9 @@
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="15" t="s">
-        <v>103</v>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="15">
+        <v>1941137</v>
       </c>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -3656,9 +3057,9 @@
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="15" t="s">
-        <v>104</v>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="15">
+        <v>201536</v>
       </c>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -3666,9 +3067,9 @@
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="15" t="s">
-        <v>105</v>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="15">
+        <v>2025544</v>
       </c>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
@@ -3676,9 +3077,9 @@
       <c r="E101" s="16"/>
       <c r="F101" s="16"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="15" t="s">
-        <v>106</v>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="15">
+        <v>203556</v>
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
@@ -3686,9 +3087,9 @@
       <c r="E102" s="16"/>
       <c r="F102" s="16"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="15" t="s">
-        <v>107</v>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="15">
+        <v>203591</v>
       </c>
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
@@ -3696,9 +3097,9 @@
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="15" t="s">
-        <v>108</v>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="15">
+        <v>225387</v>
       </c>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
@@ -3706,9 +3107,9 @@
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="15" t="s">
-        <v>109</v>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="15">
+        <v>395923</v>
       </c>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
@@ -3716,9 +3117,9 @@
       <c r="E105" s="16"/>
       <c r="F105" s="16"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="15" t="s">
-        <v>110</v>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="15">
+        <v>396321</v>
       </c>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
@@ -3726,9 +3127,9 @@
       <c r="E106" s="16"/>
       <c r="F106" s="16"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="15" t="s">
-        <v>111</v>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="15">
+        <v>401708</v>
       </c>
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
@@ -3736,9 +3137,9 @@
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="15" t="s">
-        <v>112</v>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="15">
+        <v>551445</v>
       </c>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
@@ -3746,9 +3147,9 @@
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="15" t="s">
-        <v>113</v>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="15">
+        <v>551449</v>
       </c>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
@@ -3756,9 +3157,9 @@
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="15" t="s">
-        <v>114</v>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="15">
+        <v>551456</v>
       </c>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -3766,9 +3167,9 @@
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="15" t="s">
-        <v>115</v>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="15">
+        <v>752642</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
@@ -3776,9 +3177,9 @@
       <c r="E111" s="5"/>
       <c r="F111" s="6"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="15" t="s">
-        <v>116</v>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="15">
+        <v>935761</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
@@ -3786,9 +3187,9 @@
       <c r="E112" s="5"/>
       <c r="F112" s="6"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="15" t="s">
-        <v>117</v>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="15">
+        <v>935762</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
@@ -3796,9 +3197,9 @@
       <c r="E113" s="5"/>
       <c r="F113" s="6"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="15" t="s">
-        <v>118</v>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="15">
+        <v>937191</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
@@ -3806,9 +3207,9 @@
       <c r="E114" s="5"/>
       <c r="F114" s="6"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="15" t="s">
-        <v>119</v>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="15">
+        <v>967125</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
@@ -3816,9 +3217,9 @@
       <c r="E115" s="5"/>
       <c r="F115" s="6"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="15" t="s">
-        <v>120</v>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="15">
+        <v>969126</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
@@ -3826,9 +3227,9 @@
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="15" t="s">
-        <v>121</v>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="15">
+        <v>969141</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="3"/>
@@ -3836,9 +3237,9 @@
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="15" t="s">
-        <v>122</v>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="15">
+        <v>969142</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
@@ -3846,9 +3247,9 @@
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="15" t="s">
-        <v>123</v>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="15">
+        <v>969143</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
@@ -3856,9 +3257,9 @@
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="15" t="s">
-        <v>124</v>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="15">
+        <v>969205</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
@@ -3866,9 +3267,9 @@
       <c r="E120" s="5"/>
       <c r="F120" s="6"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="15" t="s">
-        <v>125</v>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="15">
+        <v>969206</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="3"/>
@@ -3876,9 +3277,9 @@
       <c r="E121" s="5"/>
       <c r="F121" s="6"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="15" t="s">
-        <v>126</v>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="15">
+        <v>969207</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
@@ -3886,9 +3287,9 @@
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="15" t="s">
-        <v>127</v>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="15">
+        <v>986485</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="3"/>
@@ -3896,9 +3297,9 @@
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="15" t="s">
-        <v>173</v>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="15">
+        <v>1411563</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="3"/>
@@ -3906,9 +3307,9 @@
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="15" t="s">
-        <v>174</v>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="15">
+        <v>1411568</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="3"/>
@@ -3916,9 +3317,9 @@
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="15" t="s">
-        <v>175</v>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="15">
+        <v>713896</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="3"/>
@@ -3926,9 +3327,9 @@
       <c r="E126" s="5"/>
       <c r="F126" s="6"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="15" t="s">
-        <v>177</v>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="15">
+        <v>1983309</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="3"/>
@@ -3936,9 +3337,9 @@
       <c r="E127" s="5"/>
       <c r="F127" s="6"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="15" t="s">
-        <v>178</v>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="15">
+        <v>116042</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
@@ -3946,9 +3347,9 @@
       <c r="E128" s="5"/>
       <c r="F128" s="6"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="15" t="s">
-        <v>179</v>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="15">
+        <v>116050</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="3"/>
@@ -3956,9 +3357,9 @@
       <c r="E129" s="5"/>
       <c r="F129" s="6"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="15" t="s">
-        <v>180</v>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="15">
+        <v>116053</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
@@ -3966,9 +3367,9 @@
       <c r="E130" s="5"/>
       <c r="F130" s="6"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="15" t="s">
-        <v>181</v>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="15">
+        <v>116056</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="3"/>
@@ -3976,9 +3377,9 @@
       <c r="E131" s="5"/>
       <c r="F131" s="6"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="15" t="s">
-        <v>182</v>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="15">
+        <v>753546</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="3"/>
@@ -3986,9 +3387,9 @@
       <c r="E132" s="5"/>
       <c r="F132" s="6"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="15" t="s">
-        <v>183</v>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="15">
+        <v>198202</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="3"/>
@@ -3996,9 +3397,9 @@
       <c r="E133" s="5"/>
       <c r="F133" s="6"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="15" t="s">
-        <v>184</v>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="15">
+        <v>1358315</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="3"/>
@@ -4006,9 +3407,9 @@
       <c r="E134" s="5"/>
       <c r="F134" s="6"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="15" t="s">
-        <v>186</v>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="15">
+        <v>1017320</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="3"/>
@@ -4016,9 +3417,9 @@
       <c r="E135" s="5"/>
       <c r="F135" s="6"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="15" t="s">
-        <v>187</v>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="15">
+        <v>922522</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
@@ -4026,9 +3427,9 @@
       <c r="E136" s="5"/>
       <c r="F136" s="6"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="15" t="s">
-        <v>188</v>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="15">
+        <v>3428</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
@@ -4036,9 +3437,9 @@
       <c r="E137" s="5"/>
       <c r="F137" s="6"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="15" t="s">
-        <v>189</v>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="15">
+        <v>3432</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
@@ -4046,9 +3447,9 @@
       <c r="E138" s="5"/>
       <c r="F138" s="6"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="15" t="s">
-        <v>190</v>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="15">
+        <v>3441</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
@@ -4056,9 +3457,9 @@
       <c r="E139" s="5"/>
       <c r="F139" s="6"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="15" t="s">
-        <v>191</v>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="15">
+        <v>3445</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
@@ -4066,9 +3467,9 @@
       <c r="E140" s="5"/>
       <c r="F140" s="6"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="15" t="s">
-        <v>192</v>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="15">
+        <v>1093699</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
@@ -4076,9 +3477,9 @@
       <c r="E141" s="5"/>
       <c r="F141" s="6"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="15" t="s">
-        <v>193</v>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="15">
+        <v>1093710</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
@@ -4086,9 +3487,9 @@
       <c r="E142" s="5"/>
       <c r="F142" s="6"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="15" t="s">
-        <v>194</v>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="15">
+        <v>1093715</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="3"/>
@@ -4096,9 +3497,9 @@
       <c r="E143" s="5"/>
       <c r="F143" s="6"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="15" t="s">
-        <v>195</v>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="15">
+        <v>1463318</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
@@ -4106,9 +3507,9 @@
       <c r="E144" s="5"/>
       <c r="F144" s="6"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="15" t="s">
-        <v>196</v>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="15">
+        <v>1463323</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="3"/>
@@ -4116,9 +3517,9 @@
       <c r="E145" s="5"/>
       <c r="F145" s="6"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="15" t="s">
-        <v>197</v>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="15">
+        <v>1463335</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
@@ -4126,9 +3527,9 @@
       <c r="E146" s="5"/>
       <c r="F146" s="6"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="15" t="s">
-        <v>198</v>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="15">
+        <v>1463467</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="3"/>
@@ -4136,9 +3537,9 @@
       <c r="E147" s="5"/>
       <c r="F147" s="6"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="15" t="s">
-        <v>199</v>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="15">
+        <v>1463509</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="3"/>
@@ -4146,9 +3547,9 @@
       <c r="E148" s="5"/>
       <c r="F148" s="6"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="15" t="s">
-        <v>200</v>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="15">
+        <v>1463557</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="3"/>
@@ -4156,9 +3557,9 @@
       <c r="E149" s="5"/>
       <c r="F149" s="6"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="15" t="s">
-        <v>201</v>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="15">
+        <v>1463575</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="3"/>
@@ -4166,9 +3567,9 @@
       <c r="E150" s="5"/>
       <c r="F150" s="6"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="15" t="s">
-        <v>202</v>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="15">
+        <v>1463622</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="3"/>
@@ -4176,9 +3577,9 @@
       <c r="E151" s="5"/>
       <c r="F151" s="6"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="15" t="s">
-        <v>203</v>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="15">
+        <v>713821</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="3"/>
@@ -4186,9 +3587,9 @@
       <c r="E152" s="5"/>
       <c r="F152" s="6"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>204</v>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>713826</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="3"/>
@@ -4196,9 +3597,9 @@
       <c r="E153" s="5"/>
       <c r="F153" s="6"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>205</v>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>713859</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="3"/>
@@ -4206,140 +3607,140 @@
       <c r="E154" s="5"/>
       <c r="F154" s="6"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B155" s="2"/>
       <c r="C155" s="3"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5"/>
       <c r="F155" s="6"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B156" s="2"/>
       <c r="C156" s="3"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5"/>
       <c r="F156" s="6"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B157" s="2"/>
       <c r="C157" s="3"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5"/>
       <c r="F157" s="6"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B158" s="2"/>
       <c r="C158" s="3"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5"/>
       <c r="F158" s="6"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B159" s="2"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5"/>
       <c r="F159" s="6"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B160" s="2"/>
       <c r="C160" s="3"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5"/>
       <c r="F160" s="6"/>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" s="2"/>
       <c r="C161" s="3"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5"/>
       <c r="F161" s="6"/>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B162" s="2"/>
       <c r="C162" s="3"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5"/>
       <c r="F162" s="6"/>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B163" s="2"/>
       <c r="C163" s="3"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5"/>
       <c r="F163" s="6"/>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B164" s="2"/>
       <c r="C164" s="3"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5"/>
       <c r="F164" s="6"/>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165" s="2"/>
       <c r="C165" s="3"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5"/>
       <c r="F165" s="6"/>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B166" s="2"/>
       <c r="C166" s="3"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5"/>
       <c r="F166" s="6"/>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" s="2"/>
       <c r="C167" s="3"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5"/>
       <c r="F167" s="6"/>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B168" s="2"/>
       <c r="C168" s="3"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5"/>
       <c r="F168" s="6"/>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B169" s="2"/>
       <c r="C169" s="3"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5"/>
       <c r="F169" s="6"/>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" s="2"/>
       <c r="C170" s="3"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5"/>
       <c r="F170" s="6"/>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" s="2"/>
       <c r="C171" s="3"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5"/>
       <c r="F171" s="6"/>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B172" s="2"/>
       <c r="C172" s="3"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5"/>
       <c r="F172" s="6"/>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B173" s="2"/>
       <c r="C173" s="3"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5"/>
       <c r="F173" s="6"/>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B174" s="2"/>
       <c r="C174" s="3"/>
       <c r="F174" s="6"/>
@@ -4351,26 +3752,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="9" customWidth="1"/>
-    <col min="5" max="5" width="29.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="1"/>
+    <col min="5" max="5" width="29.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4390,9 +3791,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>128</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
+        <v>1031000</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -4400,9 +3801,9 @@
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>129</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>1031003</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -4410,9 +3811,9 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>130</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>1031005</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -4420,9 +3821,9 @@
       <c r="E4" s="17"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>131</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>1095858</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -4430,9 +3831,9 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>132</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>1095859</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -4440,9 +3841,9 @@
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>133</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>1095920</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -4450,9 +3851,9 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>134</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>1095922</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -4460,9 +3861,9 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>135</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>1095923</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -4470,9 +3871,9 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>136</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>1095926</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -4480,9 +3881,9 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>137</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>1095930</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4490,9 +3891,9 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>138</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>1096051</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -4500,9 +3901,9 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>139</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>1096052</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -4510,9 +3911,9 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>140</v>
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>1096053</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -4520,9 +3921,9 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>141</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>1096056</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -4530,9 +3931,9 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>142</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>1096068</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -4540,9 +3941,9 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>143</v>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>1096097</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -4550,9 +3951,9 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>144</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>1096124</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -4560,9 +3961,9 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>145</v>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>1096139</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -4570,9 +3971,9 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>146</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>1096208</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -4580,9 +3981,9 @@
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>147</v>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>1096210</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -4590,9 +3991,9 @@
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>148</v>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>188987</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -4600,9 +4001,9 @@
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>149</v>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>194772</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -4610,9 +4011,9 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>150</v>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>238127</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -4620,9 +4021,9 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>151</v>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>238158</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -4630,9 +4031,9 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>152</v>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>238363</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -4640,9 +4041,9 @@
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>153</v>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>324297</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -4650,9 +4051,9 @@
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>154</v>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>324298</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -4660,9 +4061,9 @@
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>155</v>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>331356</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -4670,9 +4071,9 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>156</v>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>331362</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -4680,9 +4081,9 @@
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>157</v>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>343555</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -4690,9 +4091,9 @@
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>158</v>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>343661</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -4700,9 +4101,9 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>159</v>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>343678</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -4710,9 +4111,9 @@
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>160</v>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>343687</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -4720,9 +4121,9 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>161</v>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>343688</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -4730,9 +4131,9 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>162</v>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>343692</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -4740,9 +4141,9 @@
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>163</v>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>459378</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -4750,9 +4151,9 @@
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>164</v>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>459464</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -4760,9 +4161,9 @@
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>165</v>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>459866</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -4770,9 +4171,9 @@
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>166</v>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>734994</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -4780,9 +4181,9 @@
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>167</v>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>740964</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -4790,9 +4191,9 @@
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>168</v>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>740966</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -4800,9 +4201,9 @@
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>169</v>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>740989</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -4810,9 +4211,9 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>170</v>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>741284</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -4820,9 +4221,9 @@
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>171</v>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>741685</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -4830,9 +4231,9 @@
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>172</v>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>741771</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -4840,9 +4241,9 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>176</v>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>161860</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -4850,9 +4251,9 @@
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>185</v>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
+        <v>51786</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -4860,882 +4261,882 @@
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
       <c r="F101" s="16"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
       <c r="F102" s="16"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
       <c r="F105" s="16"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
       <c r="F106" s="16"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5"/>
       <c r="F111" s="6"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5"/>
       <c r="F112" s="6"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5"/>
       <c r="F113" s="6"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5"/>
       <c r="F114" s="6"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5"/>
       <c r="F115" s="6"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5"/>
       <c r="F120" s="6"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="3"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5"/>
       <c r="F121" s="6"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" s="2"/>
       <c r="C123" s="3"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" s="2"/>
       <c r="C124" s="3"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125" s="2"/>
       <c r="C125" s="3"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B126" s="2"/>
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5"/>
       <c r="F126" s="6"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127" s="2"/>
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5"/>
       <c r="F127" s="6"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5"/>
       <c r="F128" s="6"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129" s="2"/>
       <c r="C129" s="3"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5"/>
       <c r="F129" s="6"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5"/>
       <c r="F130" s="6"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B131" s="2"/>
       <c r="C131" s="3"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5"/>
       <c r="F131" s="6"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132" s="2"/>
       <c r="C132" s="3"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5"/>
       <c r="F132" s="6"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B133" s="2"/>
       <c r="C133" s="3"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5"/>
       <c r="F133" s="6"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B134" s="2"/>
       <c r="C134" s="3"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5"/>
       <c r="F134" s="6"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B135" s="2"/>
       <c r="C135" s="3"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5"/>
       <c r="F135" s="6"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5"/>
       <c r="F136" s="6"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5"/>
       <c r="F137" s="6"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5"/>
       <c r="F138" s="6"/>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5"/>
       <c r="F139" s="6"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5"/>
       <c r="F140" s="6"/>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5"/>
       <c r="F141" s="6"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5"/>
       <c r="F142" s="6"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B143" s="2"/>
       <c r="C143" s="3"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5"/>
       <c r="F143" s="6"/>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5"/>
       <c r="F144" s="6"/>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B145" s="2"/>
       <c r="C145" s="3"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5"/>
       <c r="F145" s="6"/>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5"/>
       <c r="F146" s="6"/>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B147" s="2"/>
       <c r="C147" s="3"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5"/>
       <c r="F147" s="6"/>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B148" s="2"/>
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5"/>
       <c r="F148" s="6"/>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B149" s="2"/>
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5"/>
       <c r="F149" s="6"/>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B150" s="2"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5"/>
       <c r="F150" s="6"/>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" s="2"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5"/>
       <c r="F151" s="6"/>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B152" s="2"/>
       <c r="C152" s="3"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5"/>
       <c r="F152" s="6"/>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B153" s="2"/>
       <c r="C153" s="3"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5"/>
       <c r="F153" s="6"/>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B154" s="2"/>
       <c r="C154" s="3"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5"/>
       <c r="F154" s="6"/>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155" s="2"/>
       <c r="C155" s="3"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5"/>
       <c r="F155" s="6"/>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156" s="2"/>
       <c r="C156" s="3"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5"/>
       <c r="F156" s="6"/>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B157" s="2"/>
       <c r="C157" s="3"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5"/>
       <c r="F157" s="6"/>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B158" s="2"/>
       <c r="C158" s="3"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5"/>
       <c r="F158" s="6"/>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B159" s="2"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5"/>
       <c r="F159" s="6"/>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B160" s="2"/>
       <c r="C160" s="3"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5"/>
       <c r="F160" s="6"/>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" s="2"/>
       <c r="C161" s="3"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5"/>
       <c r="F161" s="6"/>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B162" s="2"/>
       <c r="C162" s="3"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5"/>
       <c r="F162" s="6"/>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B163" s="2"/>
       <c r="C163" s="3"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5"/>
       <c r="F163" s="6"/>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B164" s="2"/>
       <c r="C164" s="3"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5"/>
       <c r="F164" s="6"/>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165" s="2"/>
       <c r="C165" s="3"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5"/>
       <c r="F165" s="6"/>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B166" s="2"/>
       <c r="C166" s="3"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5"/>
       <c r="F166" s="6"/>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" s="2"/>
       <c r="C167" s="3"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5"/>
       <c r="F167" s="6"/>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B168" s="2"/>
       <c r="C168" s="3"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5"/>
       <c r="F168" s="6"/>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B169" s="2"/>
       <c r="C169" s="3"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5"/>
       <c r="F169" s="6"/>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" s="2"/>
       <c r="C170" s="3"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5"/>
       <c r="F170" s="6"/>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" s="2"/>
       <c r="C171" s="3"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5"/>
       <c r="F171" s="6"/>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B172" s="2"/>
       <c r="C172" s="3"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5"/>
       <c r="F172" s="6"/>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B173" s="2"/>
       <c r="C173" s="3"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5"/>
       <c r="F173" s="6"/>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B174" s="2"/>
       <c r="C174" s="3"/>
       <c r="F174" s="6"/>
